--- a/Code/math_mean_dim10.xlsx
+++ b/Code/math_mean_dim10.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="3">
   <si>
     <t>DE</t>
   </si>
@@ -44,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -70,11 +70,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -94,6 +96,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,56 +107,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>4438.7489255903602</v>
+        <v>2.4985798944012567e-06</v>
       </c>
       <c r="B2">
-        <v>418.37765308956392</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2448.1895618259741</v>
+        <v>3.1071774497348488e-19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>6762.9569912512125</v>
+        <v>57.815172334473949</v>
       </c>
       <c r="B3">
-        <v>1838.9992769488072</v>
+        <v>3.9379936388632908e-28</v>
       </c>
       <c r="C3">
-        <v>2913.4452077332999</v>
+        <v>3.6506814342470555e-19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>38883621.305905357</v>
+        <v>4820019.2072991272</v>
       </c>
       <c r="B4">
-        <v>36022037.055632234</v>
+        <v>158940.35547164976</v>
       </c>
       <c r="C4">
-        <v>4254386.1981971264</v>
+        <v>9.4170403286796551e-16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>99.570564624195271</v>
+      </c>
+      <c r="B5">
+        <v>8.8265911825598397e-24</v>
+      </c>
+      <c r="C5">
+        <v>1.1697108666110294e-16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2.382876118645072e-10</v>
+      </c>
+      <c r="B6">
+        <v>540.73917979041414</v>
+      </c>
+      <c r="C6">
+        <v>0.00013088571431580932</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>73.140390950044591</v>
+      </c>
+      <c r="B7">
+        <v>18.498376076422549</v>
+      </c>
+      <c r="C7">
+        <v>11.419490055377901</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.70863636714491318</v>
+      </c>
+      <c r="B8">
+        <v>0.2455324359261227</v>
+      </c>
+      <c r="C8">
+        <v>0.59633849585064835</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>20.338559895601307</v>
+      </c>
+      <c r="B9">
+        <v>20.293049447967871</v>
+      </c>
+      <c r="C9">
+        <v>20.390859717173964</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.022282082716834437</v>
+      </c>
+      <c r="B10">
+        <v>5.2401155176363998</v>
+      </c>
+      <c r="C10">
+        <v>35.557081163955147</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>40.558277125445649</v>
+      </c>
+      <c r="B11">
+        <v>13.863078038108558</v>
+      </c>
+      <c r="C11">
+        <v>35.523948312195053</v>
       </c>
     </row>
   </sheetData>

--- a/Code/math_mean_dim10.xlsx
+++ b/Code/math_mean_dim10.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="3">
   <si>
     <t>DE</t>
   </si>
@@ -44,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -72,11 +72,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -98,6 +100,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,130 +114,130 @@
   <dimension ref="A1:C11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>2.4985798944012567e-06</v>
+        <v>1.8888463096835262</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.6360798757648283</v>
       </c>
       <c r="C2">
-        <v>3.1071774497348488e-19</v>
+        <v>2.1749503423208663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>57.815172334473949</v>
+        <v>43.234193891934069</v>
       </c>
       <c r="B3">
-        <v>3.9379936388632908e-28</v>
+        <v>240.42335307476489</v>
       </c>
       <c r="C3">
-        <v>3.6506814342470555e-19</v>
+        <v>2.6457702345676055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>4820019.2072991272</v>
+        <v>761566.99382591259</v>
       </c>
       <c r="B4">
-        <v>158940.35547164976</v>
+        <v>5541509.508374339</v>
       </c>
       <c r="C4">
-        <v>9.4170403286796551e-16</v>
+        <v>3881.8716824076287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>99.570564624195271</v>
+        <v>60.115405605103071</v>
       </c>
       <c r="B5">
-        <v>8.8265911825598397e-24</v>
+        <v>257.38284283583903</v>
       </c>
       <c r="C5">
-        <v>1.1697108666110294e-16</v>
+        <v>7.5869580512607122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2.382876118645072e-10</v>
+        <v>48.391165597335203</v>
       </c>
       <c r="B6">
-        <v>540.73917979041414</v>
+        <v>1444.9411692294816</v>
       </c>
       <c r="C6">
-        <v>0.00013088571431580932</v>
+        <v>326.71559321398672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>73.140390950044591</v>
+        <v>3199.4537310619185</v>
       </c>
       <c r="B7">
-        <v>18.498376076422549</v>
+        <v>8391.6804053102878</v>
       </c>
       <c r="C7">
-        <v>11.419490055377901</v>
+        <v>3663.2329235556995</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.70863636714491318</v>
+        <v>1.1547305564374544</v>
       </c>
       <c r="B8">
-        <v>0.2455324359261227</v>
+        <v>2.3773161685519799</v>
       </c>
       <c r="C8">
-        <v>0.59633849585064835</v>
+        <v>1.1475482162481832</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>20.338559895601307</v>
+        <v>20.525014192891469</v>
       </c>
       <c r="B9">
-        <v>20.293049447967871</v>
+        <v>20.642991559472346</v>
       </c>
       <c r="C9">
-        <v>20.390859717173964</v>
+        <v>20.299785565713272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.022282082716834437</v>
+        <v>41.735346680871324</v>
       </c>
       <c r="B10">
-        <v>5.2401155176363998</v>
+        <v>30.488400320810129</v>
       </c>
       <c r="C10">
-        <v>35.557081163955147</v>
+        <v>55.914842771736112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>40.558277125445649</v>
+        <v>47.236485600625656</v>
       </c>
       <c r="B11">
-        <v>13.863078038108558</v>
+        <v>44.797043629624739</v>
       </c>
       <c r="C11">
-        <v>35.523948312195053</v>
+        <v>50.401240820081888</v>
       </c>
     </row>
   </sheetData>
